--- a/Template/02_Analise_e_Exploracao_df_estat_categoricas.xlsx
+++ b/Template/02_Analise_e_Exploracao_df_estat_categoricas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>index</t>
   </si>
@@ -34,6 +34,12 @@
     <t>vendedor_grande_regiao_nome</t>
   </si>
   <si>
+    <t>postagem_limiteparceiro_atrasado_moda</t>
+  </si>
+  <si>
+    <t>entrega_estimado_atrasado_moda</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
@@ -44,6 +50,27 @@
   </si>
   <si>
     <t>freq</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
   <si>
     <t>esporte_lazer</t>
@@ -416,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,10 +468,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1658</v>
@@ -461,10 +494,16 @@
       <c r="F2">
         <v>1658</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>1658</v>
+      </c>
+      <c r="H2">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -482,29 +521,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
       </c>
       <c r="B5">
         <v>174</v>
@@ -520,6 +559,83 @@
       </c>
       <c r="F5">
         <v>1218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>0.04644149577804584</v>
+      </c>
+      <c r="H6">
+        <v>0.02955367913148372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>0.2105027531117994</v>
+      </c>
+      <c r="H7">
+        <v>0.1694035646801691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
